--- a/excel/绩效考核模板-研发.xlsx
+++ b/excel/绩效考核模板-研发.xlsx
@@ -69,7 +69,7 @@
     </r>
   </si>
   <si>
-    <t>业绩75%</t>
+    <t>业绩80%</t>
   </si>
   <si>
     <t>项目进度达成率</t>
@@ -77,15 +77,20 @@
   <si>
     <t>描述
 1、该项由于关联牵扯多方配合（嵌入式、ui设计、产品），只统计软件开发阶段的进度达成率，其他环节有其他指标来判断。（以提交版本测试创建测试单为准）
-计算标准
-1、实际软件研发项目关闭时间比预期提前完成：1.2
-2、实际软件研发项目关闭时间与预期相等：1
-3、实际软件研发项目关闭时间比预期时间晚5个自然日内：0.5
-4、实际软件研发项目关于时间与预期时间晚5个自然日外：0</t>
+计算标准 +t(天) = 软件研发项目关闭时间 - 软件研发项目关闭预期时间
+t &lt;= -8 (基数: 1.8) +-8 &lt; t &lt;= -6 (基数: 1.5) +-6 &lt; t &lt;= -3 (基数: 1.2) +-3 &lt; t &lt;= 0 (基数: 1.0) +0 &lt; t &lt;= 2 (基数: 0.8) +2 &lt; t &lt;= 4 (基数: 0.6) +4 &lt; t &lt;= 6 (基数: 0.5) +t &gt; 6 (基数: 0)</t>
   </si>
   <si>
     <t>基数=(单个项目基数之和）/项目数
-分值=基数*25</t>
+分值=基数*30</t>
   </si>
   <si>
     <t>需求达成率</t>
@@ -114,11 +119,13 @@
 2、统计未关闭bug数，需满足仍指派给被考评人身上，bug状态是激活。
 3、bug解决方案为外部原因、设计如此、重复bug、无法重现不计算总bug数（有效bug）
 计算标准
-项目均bug遗留率=0，基数是1.2
-项目均bug遗留率&lt;=0.1，基数是1
-项目均bug遗留率&lt;=0.2，基数是0.8
+项目均bug遗留率=0，基数是1.0
+项目均bug遗留率&lt;=0.1，基数是0.9
+项目均bug遗留率&lt;=0.2，基数是0.8 +项目均bug遗留率&lt;=0.3，基数是0.7 +项目均bug遗留率&lt;=0.4，基数是0.6
 项目均bug遗留率&lt;=0.5，基数是0.5
-项目均bug遗留率=1，基数是0</t>
+项目均bug遗留率&gt; 0.5，基数是0</t>
   </si>
   <si>
     <t>项目均bug关闭率 = （单个项目未关闭bug数/总bug数之和）/项目数
@@ -127,7 +134,7 @@
 分值=0.8 * (1 - 3/20 ) * 20 = 13.6</t>
   </si>
   <si>
-    <t>能力25%</t>
+    <t>能力20%</t>
   </si>
   <si>
     <t>工时预估达成比</t>
@@ -137,10 +144,11 @@
 1、该项作为需求分解与研发能力体现，通过计划预估与实际产生工时的相差，来衡量研发人力对于需求的拆解能力和时间规划能力。
 2、只计算当月上报的工时（不关心项目开始/结束时间）
 计算标准
-工时预估达成比小于等于80%，基数是1.2
-工时预估达成比大于80%，小于等于120%，基数是1
-工时预估达成比大于120%，小于160%，基数是0.8
-工时预估达成比大于160%，基数是0.55</t>
+工时预估达成比小于等于100%，基数是1
+工时预估达成比大于100%，小于等于120%，基数是0.8 +工时预估达成比大于120%，小于140%，基数是0.6
+工时预估达成比大于140%，小于160%，基数是0.4
+工时预估达成比大于160%，基数是0.5</t>
   </si>
   <si>
     <t>基数=(单个任务工时预估达成比之和)/任务数
@@ -157,10 +165,10 @@
 1、该项作为研发能否控制发版频次从而映射质量能力
 2、只计算当月已测试完成项目（不关心项目开始时间）
 基数计算标准
-项目平均发版提测次数小于3次：基数是1.2
-项目平均发版提测次数约等于3次：基础是1
-项目平均发版提测次数大于3.5次小于等于5次：基数是0.8
-项目平均发版提测次数大于5次，基数是0.55</t>
+项目平均发版提测次数小等于2次：基数是1
+项目平均发版提测次数大于2次，小于等于4：基数是0.8
+项目平均发版提测次数大于4次小于等于6次：基数是0.4
+项目平均发版提测次数大于6次，基数是0</t>
   </si>
   <si>
     <t>基数=项目提测次数之和/项目数
@@ -1924,7 +1932,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" ht="121.5" customHeight="1">
+    <row r="4" ht="167.1" customHeight="1">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="21">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="s" s="22">
         <v>14</v>
@@ -1999,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="21">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="E7" t="s" s="22">
         <v>24</v>

--- a/excel/绩效考核模板-研发.xlsx
+++ b/excel/绩效考核模板-研发.xlsx
@@ -69,7 +69,7 @@
     </r>
   </si>
   <si>
-    <t>业绩80%</t>
+    <t>业绩90%</t>
   </si>
   <si>
     <t>项目进度达成率</t>
@@ -1963,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="21">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="s" s="22">
         <v>17</v>
@@ -1983,7 +1983,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="s" s="22">
         <v>20</v>
@@ -2088,7 +2088,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="21">
         <f>SUM(D4:D8)</f>
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>

--- a/excel/绩效考核模板-研发.xlsx
+++ b/excel/绩效考核模板-研发.xlsx
@@ -72,25 +72,62 @@
     <t>业绩90%</t>
   </si>
   <si>
-    <t>项目进度达成率</t>
-  </si>
-  <si>
-    <t>描述
-1、该项由于关联牵扯多方配合（嵌入式、ui设计、产品），只统计软件开发阶段的进度达成率，其他环节有其他指标来判断。（以提交版本测试创建测试单为准）
-计算标准 -t(天) = 软件研发项目关闭时间 - 软件研发项目关闭预期时间
-t &lt;= -8 (基数: 1.8) --8 &lt; t &lt;= -6 (基数: 1.5) --6 &lt; t &lt;= -3 (基数: 1.2) --3 &lt; t &lt;= 0 (基数: 1.0) -0 &lt; t &lt;= 2 (基数: 0.8) -2 &lt; t &lt;= 4 (基数: 0.6) -4 &lt; t &lt;= 6 (基数: 0.5) -t &gt; 6 (基数: 0)</t>
-  </si>
-  <si>
-    <t>基数=(单个项目基数之和）/项目数
-分值=基数*30</t>
+    <t>项目进度延时率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">描述
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">计算标准
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>计算标准 +延时率 = (本月结案项目总实际开发天数)/(本月结案项目总预估天数) +延时率 &lt;= -50%                       基数 1.5 +-50% &lt; 延时率 &lt;= -20%.         基数 1.2 +-20% &lt; 延时率 &lt;= 0%.            基数 1 +0% &lt; 延时率 &lt;= 20%.             基数 0.5 +延时率 &gt; 20%                          基数 0</t>
+    </r>
+  </si>
+  <si>
+    <t>分值=基数*30</t>
   </si>
   <si>
     <t>需求达成率</t>

--- a/excel/绩效考核模板-研发.xlsx
+++ b/excel/绩效考核模板-研发.xlsx
@@ -74,7 +74,7 @@
   </si>
   <si>
     <t>描述
-1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
+1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。
 计算标准
 延时率 = (本月结案项目总实际开发天数)/(本月结案项目总预估天数) -1
 延时率 &lt;= -50%                       基数 1.5
@@ -97,10 +97,7 @@
 （非产品创建）
 3、需求一经拆解，则认定研发认同需求分值。需求分值又主管/项目经理认定。
 计算标准
-1、需求预估工时大于等于16小时，2.5分
-2、需求预估工时大于等于8小时，小于16小时，2分
-3、需求预估工时大于等于4小时，小于8小时，1.5分
-4、需求预估工时小于4小时，1分</t>
+1、需求预估工时0.1小时为0.02分</t>
   </si>
   <si>
     <t>分值=当月完成需求分值总和（需求状态研发完毕）</t>

--- a/excel/绩效考核模板-研发.xlsx
+++ b/excel/绩效考核模板-研发.xlsx
@@ -97,7 +97,7 @@
 （非产品创建）
 3、需求一经拆解，则认定研发认同需求分值。需求分值又主管/项目经理认定。
 计算标准
-1、需求预估工时0.1小时为0.02分</t>
+1、需求预估工时0.1小时为0.021分</t>
   </si>
   <si>
     <t>分值=当月完成需求分值总和（需求状态研发完毕）</t>

--- a/excel/绩效考核模板-研发.xlsx
+++ b/excel/绩效考核模板-研发.xlsx
@@ -507,16 +507,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -525,19 +525,19 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -546,22 +546,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -570,13 +570,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -588,10 +588,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -609,10 +609,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -627,7 +627,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,12 +846,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1135,12 +1135,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
